--- a/Export_format/thingsToNote.xlsx
+++ b/Export_format/thingsToNote.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="1080">
   <si>
     <t>客戶名稱</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4073,6 +4073,14 @@
   </si>
   <si>
     <t>和沐科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56649319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超炫科技股份有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4556,7 +4564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4564,10 +4572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C396"/>
+  <dimension ref="A1:C397"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A396" sqref="A396"/>
+      <selection activeCell="A398" sqref="A398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -8933,6 +8941,17 @@
         <v>1076</v>
       </c>
       <c r="C396" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C397" s="4" t="s">
         <v>729</v>
       </c>
     </row>

--- a/Export_format/thingsToNote.xlsx
+++ b/Export_format/thingsToNote.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1082">
   <si>
     <t>客戶名稱</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4081,6 +4081,14 @@
   </si>
   <si>
     <t>超炫科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47290141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛瓏機械有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4564,7 +4572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4572,10 +4580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C397"/>
+  <dimension ref="A1:C398"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A398" sqref="A398"/>
+      <selection activeCell="B398" sqref="B398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -8952,6 +8960,17 @@
         <v>1078</v>
       </c>
       <c r="C397" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C398" s="4" t="s">
         <v>729</v>
       </c>
     </row>

--- a/Export_format/thingsToNote.xlsx
+++ b/Export_format/thingsToNote.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="1084">
   <si>
     <t>客戶名稱</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4089,6 +4089,14 @@
   </si>
   <si>
     <t>盛瓏機械有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79982174</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沛鑫科技有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4572,7 +4580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4580,10 +4588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C398"/>
+  <dimension ref="A1:C399"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B398" sqref="B398"/>
+      <selection activeCell="A400" sqref="A400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -8971,6 +8979,17 @@
         <v>1080</v>
       </c>
       <c r="C398" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C399" s="4" t="s">
         <v>729</v>
       </c>
     </row>

--- a/Export_format/thingsToNote.xlsx
+++ b/Export_format/thingsToNote.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1086">
   <si>
     <t>客戶名稱</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4097,6 +4097,14 @@
   </si>
   <si>
     <t>沛鑫科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28392082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德揚光電有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4580,7 +4588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4588,10 +4596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C399"/>
+  <dimension ref="A1:C400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400"/>
+    <sheetView tabSelected="1" topLeftCell="A384" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A401" sqref="A401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -8990,6 +8998,17 @@
         <v>1082</v>
       </c>
       <c r="C399" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C400" s="4" t="s">
         <v>729</v>
       </c>
     </row>

--- a/Export_format/thingsToNote.xlsx
+++ b/Export_format/thingsToNote.xlsx
@@ -11,7 +11,7 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$357</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$358</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="1089">
   <si>
     <t>客戶名稱</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3736,10 +3736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陶瓷製絕緣配件 稅則:8547.10.00.00-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>橋立股份有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4105,6 +4101,22 @@
   </si>
   <si>
     <t>德揚光電有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶瓷製絕緣配件 稅則:8547.10.00.00-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceramic Substrate 稅則:6909.19.90.00-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53125710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立誠光電股份有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4230,21 +4242,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -4588,7 +4586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4596,10 +4594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C400"/>
+  <dimension ref="A1:C401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -4642,7 +4640,7 @@
         <v>567</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -4785,18 +4783,18 @@
         <v>460</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>1037</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5071,7 +5069,7 @@
         <v>356</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6286,13 +6284,13 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>1026</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -6424,7 +6422,7 @@
         <v>645</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -7309,13 +7307,13 @@
     </row>
     <row r="246" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="78" x14ac:dyDescent="0.25">
@@ -7364,46 +7362,46 @@
     </row>
     <row r="251" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B252" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C252" s="4" t="s">
         <v>1057</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C253" s="4" t="s">
         <v>1066</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C254" s="4" t="s">
         <v>1074</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="117" x14ac:dyDescent="0.25">
@@ -7458,18 +7456,18 @@
         <v>887</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="175.5" x14ac:dyDescent="0.25">
@@ -7650,32 +7648,32 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>999</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>1000</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>753</v>
+        <v>1088</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>790</v>
+        <v>1087</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>766</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>766</v>
@@ -7683,10 +7681,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>766</v>
@@ -7694,10 +7692,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>766</v>
@@ -7705,10 +7703,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>766</v>
@@ -7716,10 +7714,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>766</v>
@@ -7727,10 +7725,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C284" s="8" t="s">
         <v>766</v>
@@ -7738,10 +7736,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C285" s="8" t="s">
         <v>766</v>
@@ -7749,10 +7747,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C286" s="8" t="s">
         <v>766</v>
@@ -7760,21 +7758,21 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C288" s="8" t="s">
         <v>767</v>
@@ -7782,10 +7780,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C289" s="8" t="s">
         <v>767</v>
@@ -7793,109 +7791,109 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C290" s="8" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A292" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B292" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C291" s="8" t="s">
+      <c r="C292" s="8" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="214.5" x14ac:dyDescent="0.25">
-      <c r="A292" s="7" t="s">
+    <row r="293" spans="1:3" ht="214.5" x14ac:dyDescent="0.25">
+      <c r="A293" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B293" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="C292" s="8" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="A293" s="7" t="s">
+      <c r="C293" s="8" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="A294" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B294" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="C293" s="4" t="s">
+      <c r="C294" s="4" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="7" t="s">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B295" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="C294" s="8" t="s">
+      <c r="C295" s="8" t="s">
         <v>866</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A295" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A297" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B297" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="C297" s="4" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A297" s="7" t="s">
+    <row r="298" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A298" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B298" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C297" s="8" t="s">
+      <c r="C298" s="8" t="s">
         <v>826</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>92</v>
+        <v>576</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>371</v>
+        <v>575</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>729</v>
@@ -7903,21 +7901,21 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B301" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>803</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>729</v>
@@ -7925,10 +7923,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>729</v>
@@ -7936,10 +7934,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>729</v>
@@ -7947,10 +7945,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>729</v>
@@ -7958,10 +7956,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>729</v>
@@ -7969,10 +7967,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>729</v>
@@ -7980,10 +7978,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>729</v>
@@ -7991,10 +7989,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>729</v>
@@ -8002,10 +8000,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>729</v>
@@ -8013,10 +8011,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>729</v>
@@ -8024,10 +8022,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>729</v>
@@ -8035,10 +8033,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>729</v>
@@ -8046,10 +8044,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>729</v>
@@ -8057,10 +8055,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>729</v>
@@ -8068,10 +8066,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>729</v>
@@ -8079,10 +8077,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>729</v>
@@ -8090,10 +8088,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>729</v>
@@ -8101,10 +8099,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>729</v>
@@ -8112,10 +8110,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>729</v>
@@ -8123,10 +8121,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>729</v>
@@ -8134,65 +8132,65 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B322" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="C321" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A322" s="7" t="s">
+      <c r="C322" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A323" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B323" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="C322" s="4" t="s">
+      <c r="C323" s="4" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="7" t="s">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B324" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="C323" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A324" s="7" t="s">
+      <c r="C324" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A325" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B325" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="C324" s="4" t="s">
+      <c r="C325" s="4" t="s">
         <v>846</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="C325" s="4" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>729</v>
@@ -8200,10 +8198,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>729</v>
@@ -8211,10 +8209,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>729</v>
@@ -8222,10 +8220,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>729</v>
@@ -8233,10 +8231,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>729</v>
@@ -8244,10 +8242,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>729</v>
@@ -8255,10 +8253,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>729</v>
@@ -8266,10 +8264,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>729</v>
@@ -8277,10 +8275,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>729</v>
@@ -8288,10 +8286,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>729</v>
@@ -8299,10 +8297,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>729</v>
@@ -8310,10 +8308,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>729</v>
@@ -8321,10 +8319,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>729</v>
@@ -8332,10 +8330,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>729</v>
@@ -8343,10 +8341,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>729</v>
@@ -8354,10 +8352,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>729</v>
@@ -8365,10 +8363,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>729</v>
@@ -8376,10 +8374,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>729</v>
@@ -8387,10 +8385,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>729</v>
@@ -8398,10 +8396,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>729</v>
@@ -8409,10 +8407,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>729</v>
@@ -8420,10 +8418,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>729</v>
@@ -8431,10 +8429,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>729</v>
@@ -8442,10 +8440,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>729</v>
@@ -8453,10 +8451,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>729</v>
@@ -8464,10 +8462,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>729</v>
@@ -8475,10 +8473,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>729</v>
@@ -8486,10 +8484,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>729</v>
@@ -8497,10 +8495,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
-        <v>930</v>
+        <v>884</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>729</v>
@@ -8508,10 +8506,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>729</v>
@@ -8519,10 +8517,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>729</v>
@@ -8530,10 +8528,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>729</v>
@@ -8541,10 +8539,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>729</v>
@@ -8552,10 +8550,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>729</v>
@@ -8563,10 +8561,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>729</v>
@@ -8574,10 +8572,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>729</v>
@@ -8585,10 +8583,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>729</v>
@@ -8596,10 +8594,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>729</v>
@@ -8607,10 +8605,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>729</v>
@@ -8618,10 +8616,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>729</v>
@@ -8629,10 +8627,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>729</v>
@@ -8640,10 +8638,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>729</v>
@@ -8651,10 +8649,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>729</v>
@@ -8662,10 +8660,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>729</v>
@@ -8673,10 +8671,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>729</v>
@@ -8684,10 +8682,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>729</v>
@@ -8695,10 +8693,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>729</v>
@@ -8706,10 +8704,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>729</v>
@@ -8717,10 +8715,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>729</v>
@@ -8728,10 +8726,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>729</v>
@@ -8739,10 +8737,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>729</v>
@@ -8750,10 +8748,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>729</v>
@@ -8761,10 +8759,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>729</v>
@@ -8772,10 +8770,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>729</v>
@@ -8783,10 +8781,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>729</v>
@@ -8794,10 +8792,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>729</v>
@@ -8805,10 +8803,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>729</v>
@@ -8816,10 +8814,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>729</v>
@@ -8827,10 +8825,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>729</v>
@@ -8838,10 +8836,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>729</v>
@@ -8849,10 +8847,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>729</v>
@@ -8860,10 +8858,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>729</v>
@@ -8871,10 +8869,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>729</v>
@@ -8882,10 +8880,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>729</v>
@@ -8893,10 +8891,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>729</v>
@@ -8904,10 +8902,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>729</v>
@@ -8915,10 +8913,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>729</v>
@@ -8926,10 +8924,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>729</v>
@@ -8937,10 +8935,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>729</v>
@@ -8948,10 +8946,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>729</v>
@@ -8959,10 +8957,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>729</v>
@@ -8970,10 +8968,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>729</v>
@@ -8981,10 +8979,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>729</v>
@@ -8992,10 +8990,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>729</v>
@@ -9003,29 +9001,40 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B400" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="C400" s="4" t="s">
+      <c r="B401" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C401" s="4" t="s">
         <v>729</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C357"/>
+  <autoFilter ref="A1:C358"/>
   <sortState ref="B3:C379">
     <sortCondition ref="B3:B379"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="欠稅">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="欠稅">
       <formula>NOT(ISERROR(SEARCH("欠稅",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="非營業中">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="非營業中">
       <formula>NOT(ISERROR(SEARCH("非營業中",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Export_format/thingsToNote.xlsx
+++ b/Export_format/thingsToNote.xlsx
@@ -11,7 +11,7 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$358</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$401</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -2492,8 +2492,1570 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>八吋晶粒稅則(DIE) 稅則:8542.39.00.11-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位有SET要跟客戶確認統計數量要打多少?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金額會有小數點進位的問題，客戶不改文件
+要求自行推算單價（金額÷數量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶申請書勾選無商標，文件有BRAND，文件內容只是出廠商實際來貨無商標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感應器(半導體壓力感知器,用在血壓計上)
+稅則:9026.20.91.00-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請留意客戶要做哪個買方 BILL TO / SHIP TO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請留意客人出口抬頭是否正確</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請留意此客戶的金額及稅則
+客有指定稅則(有分印花及染色稅則不同)
+印花:6006.34.00.00-2
+染色:6006.32.00.00-4
+客戶要求文件上的COLOR:全部都不要秀
+客戶做INVOICE與申請書的小姐不同，請留意文件內容正確性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買方 Wonderland Nurserygoods Company Limited，國家代碼 HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣懿科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶文件內容有SET=多少PCS的統計數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元勛國際股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長華電材股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛裕科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶要求報單買方做 SHIP TO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙城企業有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買方 CLASSIC VICTORY LIMITED，國家代碼 SC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買方 金利運工業股份有限公司（統編 53383364，國家代碼 TW）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>育陞半導體股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若報單類別為G5/95，文件上需註明耗損率、預估完成數量、完成貨名
+（加工後品名、數量，皆需繕打在報單內，請留意！）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣類比科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳凌科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請留意核銷的報單類別！
+若原進口報單類別為【B6保稅廠輸入貨物（原料）】，
+則出口報單類別應為【B8保稅廠進口貨物（原料）復出口】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慶鳴有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接插件 connector 稅則：8536.90.20.00-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買方 Vestas Wind systems A/S，國家代碼 DK
+Hedeager 42 8200 Åarhus N Denmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作報單時留意買方需加上地址，出口放行後會由銷售助理協助申請一般產證。</t>
+  </si>
+  <si>
+    <t>泓格科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研展科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慧友電子股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力德新能源科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普陽商貿有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口報單買方需加上地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>華泰電子股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和彥貿易有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼎元光電科技股份有限公司竹南分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九強科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃科電子股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾格生科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長華科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22561048 福人刀具股份有限公司
+臺中市大肚區王田里０２３鄰沙田路一段３２０巷３３―５號１樓
+（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福人刀具股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寬德股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹懋科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾昌興業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克司康耐有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膜人包膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47614704 膜人包膜
+臺中市北區新北里一中街１３２號
+（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元利科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矽格股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞矽科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麗晶光電科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鈺科技股份有限公司</t>
+  </si>
+  <si>
+    <t>聯陽半導體股份有限公司</t>
+  </si>
+  <si>
+    <t>禾伸堂企業股份有限公司</t>
+  </si>
+  <si>
+    <t>極創電子股份有限公司</t>
+  </si>
+  <si>
+    <t>昇佳電子股份有限公司</t>
+  </si>
+  <si>
+    <t>鈊創電子股份有限公司</t>
+  </si>
+  <si>
+    <t>力領科技股份有限公司</t>
+  </si>
+  <si>
+    <t>億光電子工業股份有限公司</t>
+  </si>
+  <si>
+    <t>瑞鼎科技股份有限公司</t>
+  </si>
+  <si>
+    <t>力晶積成電子製造股份有限公司</t>
+  </si>
+  <si>
+    <t>京元電子股份有限公司竹南分公司</t>
+  </si>
+  <si>
+    <t>光鋐科技股份有限公司</t>
+  </si>
+  <si>
+    <t>國巨股份有限公司</t>
+  </si>
+  <si>
+    <t>運籌客戶</t>
+  </si>
+  <si>
+    <t>轉檔客戶</t>
+  </si>
+  <si>
+    <t>運籌客戶
+2吋晶圓/矽晶圓(Wafer) 稅則:8542.39.00.12-0
+石英晶片(Crystal Blank) 稅則:8541.60.10.00-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉檔客戶
+利保的越南件，品名中若包含越南文，打英文即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凱米克實業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶瑞光電股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繼德工業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷惠自動機械股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若有檢附核能安全委員會貨品出口同意書
+請留意對應項次的內容皆需與同意書相符(請用複製的)
+貨品分類號列、貨品名稱、牌名、型號、規格、數量、單位
+輸出許可號碼及項次欄位，請填列同意書簽審核准文號
+（共14碼，格式範例：AE113020042622）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28456304</t>
+  </si>
+  <si>
+    <t>13049603</t>
+  </si>
+  <si>
+    <t>23233430</t>
+  </si>
+  <si>
+    <t>83151502</t>
+  </si>
+  <si>
+    <t>23307811</t>
+  </si>
+  <si>
+    <t>28560405</t>
+  </si>
+  <si>
+    <t>16277740</t>
+  </si>
+  <si>
+    <t>16686610</t>
+  </si>
+  <si>
+    <t>16795912</t>
+  </si>
+  <si>
+    <t>70848492</t>
+  </si>
+  <si>
+    <t>53318771</t>
+  </si>
+  <si>
+    <t>22561048</t>
+  </si>
+  <si>
+    <t>47614704</t>
+  </si>
+  <si>
+    <t>23218022</t>
+  </si>
+  <si>
+    <t>96916895</t>
+  </si>
+  <si>
+    <t>84149499</t>
+  </si>
+  <si>
+    <t>84149717</t>
+  </si>
+  <si>
+    <t>20891326</t>
+  </si>
+  <si>
+    <t>25080085</t>
+  </si>
+  <si>
+    <t>25079572</t>
+  </si>
+  <si>
+    <t>25081367</t>
+  </si>
+  <si>
+    <t>25086406</t>
+  </si>
+  <si>
+    <t>34516147</t>
+  </si>
+  <si>
+    <t>80532726</t>
+  </si>
+  <si>
+    <t>28112667</t>
+  </si>
+  <si>
+    <t>70812945</t>
+  </si>
+  <si>
+    <t>28334226</t>
+  </si>
+  <si>
+    <t>22636630</t>
+  </si>
+  <si>
+    <t>84517297</t>
+  </si>
+  <si>
+    <t>28136915</t>
+  </si>
+  <si>
+    <t>89639615</t>
+  </si>
+  <si>
+    <t>69721550</t>
+  </si>
+  <si>
+    <t>80013822</t>
+  </si>
+  <si>
+    <t>89004161</t>
+  </si>
+  <si>
+    <t>42778426</t>
+  </si>
+  <si>
+    <t>16130465</t>
+  </si>
+  <si>
+    <t>24565301</t>
+  </si>
+  <si>
+    <t>83779238</t>
+  </si>
+  <si>
+    <t>28114813</t>
+  </si>
+  <si>
+    <t>70849957</t>
+  </si>
+  <si>
+    <t>43940926</t>
+  </si>
+  <si>
+    <t>12896354</t>
+  </si>
+  <si>
+    <t>22006020</t>
+  </si>
+  <si>
+    <t>50913261</t>
+  </si>
+  <si>
+    <t>27268748</t>
+  </si>
+  <si>
+    <t>22033899</t>
+  </si>
+  <si>
+    <t>85089315</t>
+  </si>
+  <si>
+    <t>59025512</t>
+  </si>
+  <si>
+    <t>16858612</t>
+  </si>
+  <si>
+    <t>23457064</t>
+  </si>
+  <si>
+    <t>翔名科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英特盛科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝和精密股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光電企業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智勝科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔伯萬企業有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42671331 塔伯萬企業有限公司
+臺中市南區西川里三民西路２１８號
+（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金協昌科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口留意客戶信件！_x000D_
+有多個不同的監管編號
+留意客戶提供的監管編號及對應地址
+監管編號：D1330
+名稱：超豐電子股份有限公司
+地址：苗栗縣竹南鎮佳興里公義路136號
+監管編號：D1332 
+名稱：超豐電子股份有限公司-頭份廠
+地址：苗栗縣頭份市民生里10鄰中民路9號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立達特股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大內實業有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉅立半導體股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口"感應器"稅則
+Thermopile Sensor 稅則:9025.19.90.90-4
+NDIR CO2 Sensor 稅則8504.50.19.00-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煬程企業社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋒華科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奕力科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>釩達科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政美應用股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口報單買方需加上地址
+不可以用翔名AEO（那是客戶的郵件簽名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣樂美逹技術服務有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國際聯合科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>譁泰精機股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為升電裝工業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼎茂光電股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久昌科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微太克科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>創毅科技工業有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百徽股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇能電科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅美國際有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偉方精密工業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鈞樂企業有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全科科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三和技研股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美奇林科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦宏科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請留意客戶若有檢附輸出許可證，皆需按輸出許可證繕打，如報單內容與輸出許可證內容不符，會導致簽審回覆有誤。
+（有檢附輸出許可證的皆是）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇美實業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER MT 單位 TNE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC板 稅則:8534.00.00.90-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬碟 稅則:8471.70.10.10-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光智貿易有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祐全有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成石英 稅則:8486.90.00.90-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微特半導體股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOSFET電晶體 稅則:8541.29.90.00-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銳馬動力科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷你型工業精密級自動化專用無刷電動起子
+稅則:8467.29.90.00-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開放電子有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光電傳感器 稅則:9031.49.99.00-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏童科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二極體(含穩壓器) 稅則:8541.10.90.00-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碼瑙科技創新股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅光雷射筆 稅則:9018.90.40.20-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磯鑫工業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振專股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天合國際興業有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42671331</t>
+  </si>
+  <si>
+    <t>59073491</t>
+  </si>
+  <si>
+    <t>53188329</t>
+  </si>
+  <si>
+    <t>53733849</t>
+  </si>
+  <si>
+    <t>53608315</t>
+  </si>
+  <si>
+    <t>90196080</t>
+  </si>
+  <si>
+    <t>53508104</t>
+  </si>
+  <si>
+    <t>27821487</t>
+  </si>
+  <si>
+    <t>53776678</t>
+  </si>
+  <si>
+    <t>70834639</t>
+  </si>
+  <si>
+    <t>68387705</t>
+  </si>
+  <si>
+    <t>86436593</t>
+  </si>
+  <si>
+    <t>54098493</t>
+  </si>
+  <si>
+    <t>53991607</t>
+  </si>
+  <si>
+    <t>52573942</t>
+  </si>
+  <si>
+    <t>80212998</t>
+  </si>
+  <si>
+    <t>84566661</t>
+  </si>
+  <si>
+    <t>97482186</t>
+  </si>
+  <si>
+    <t>80559251</t>
+  </si>
+  <si>
+    <t>54981206</t>
+  </si>
+  <si>
+    <t>82233457</t>
+  </si>
+  <si>
+    <t>12783703</t>
+  </si>
+  <si>
+    <t>42581937</t>
+  </si>
+  <si>
+    <t>28495545</t>
+  </si>
+  <si>
+    <t>89339624</t>
+  </si>
+  <si>
+    <t>16450332</t>
+  </si>
+  <si>
+    <t>97241217</t>
+  </si>
+  <si>
+    <t>23219346</t>
+  </si>
+  <si>
+    <t>54156182</t>
+  </si>
+  <si>
+    <t>53502805</t>
+  </si>
+  <si>
+    <t>12961328</t>
+  </si>
+  <si>
+    <t>96941260</t>
+  </si>
+  <si>
+    <t>84497335</t>
+  </si>
+  <si>
+    <t>24288502</t>
+  </si>
+  <si>
+    <t>53088308</t>
+  </si>
+  <si>
+    <t>60316123</t>
+  </si>
+  <si>
+    <t>90283303</t>
+  </si>
+  <si>
+    <t>86027892</t>
+  </si>
+  <si>
+    <t>27774061</t>
+  </si>
+  <si>
+    <t>80309249</t>
+  </si>
+  <si>
+    <t>52615393</t>
+  </si>
+  <si>
+    <t>27488166</t>
+  </si>
+  <si>
+    <t>50987328</t>
+  </si>
+  <si>
+    <t>50838067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂鑫材料科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23283254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東海產業有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54506580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>騰勢股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動物吃的保健食品 稅則:2106.90.99.90-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84900976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍摩半導體股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平坦化鑽石刀 稅則:7104.91.10.00-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50958793</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銘揚科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54886081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩迅動機股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶要求出口人地址：
+台中市大甲區重義一路39號
+(與出進口廠商登記資料不同)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16463168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢華水處理工程股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69366904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其美精密工業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模子 稅則:8207.20.10.00-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97413843</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大銀微系統股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16166738</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶公司欠稅，故出口的貨件都會被海關扣下，請留意暫時不要讓此家客戶出口！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傑本尼氏有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28331419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿怡科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86575187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汎瑋材料科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宸諺數位科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90537307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90537307 宸諺數位科技有限公司
+臺北市中山區興亞里南京東路２段２０號９樓之１
+（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27299545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樺聯科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCALE SB-20 稅則:8505.19.00.00-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低溫泵零件 稅則:8414.90.10.00-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53405037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辰允科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86735641</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力勤股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68094709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博全國際股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68683608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弘翔精密科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口稅則依申請書
+如果申請書沒有稅則，則依客戶文件內容為準
+(INVOICE的稅則是國外客戶要求秀上的)
+保稅部分沒有回覆也請出口，請注意保稅料號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25052644</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣彩光科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28548091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群創力科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86131804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碁佳企業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84346772</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智茂科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80285106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣易格斯有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53382554</t>
+  </si>
+  <si>
+    <t>53382554 宜佳貿易有限公司
+臺中市南屯區三厝里惠中路３段８０號１０樓之３
+（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜佳貿易有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27280378</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先勤科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16432742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌巨科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13165200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竑碩科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90003909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前電科創股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29047270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碩輝科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90057263</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橋立股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42623417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣妝美堂股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53065229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安尼克五金制造有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27564760</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力毅國際有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53502299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨緯科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29147003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優碩實業有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84920918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83204487</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳生威企業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宸威技術有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89287610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏晟國際光電有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0550 REAR CAMERA MODULE,W3F242-AO
+--&gt;稅則:8525.89.10.90-3
+GT500 13M Camera Module,OV13850
+--&gt;稅則:8525.89.10.90-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46622234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焌煒實業有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59073491 台灣樂美逹技術服務有限公司
+嘉義縣朴子市大葛里祥和一路西段２１號３樓
+（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46622234 焌煒實業有限公司
+桃園市龜山區楓福里光峯路２１２號３樓
+（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19004316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>華新科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80238977</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銘鎮有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位MTS=米=MTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97086144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>業捷實業有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24771301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶鑽生醫股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53680499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶訊國際有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留意數量及單價不要打反!
+端子 稅則:8536.90.20.00-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留意數量及單價不要打反!
+單位KEA=KPC，統計數量為PCS數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84627034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日進電線股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留意數量及單價不要打反!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53028365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美商野外爬山單車有限公司台灣分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53485593</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88120872</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進鴻科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東台精機股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23097408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓緯實業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22308897</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞亞科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28647347</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉利康股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45105681</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霈昇科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28802261 寰延有限公司
+新北市新店區德安里安康路２段２８６號（２樓）
+（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28802261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寰延有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25191081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25191081 湧益實業股份有限公司
+臺中市潭子區新田里５鄰豐興路２段３３８巷１３號
+（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湧益實業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>統計數量看品名內的PCS數
+SHEET = KPCS * 1000 = PCE
+長華電材股份有限公司
+統一編號:23307811
+B9報單三角交易報關方式，請見客戶提供的WORD檔
+保稅廠商:長華科技股份有限公司 
+★海關監管編號不填，請填保稅相關信息★
+保稅廠統一編號：70849957
+保稅廠監管編號：BN132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16945166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笙泉科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24965876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喬方案有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41197533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文胤設計工作室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41197533 文胤設計工作室
+宜蘭縣羅東鎮仁和里義和巷４號
+（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90063639</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車偉佳有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53606180 上賀精技工業有限公司
+彰化縣花壇鄉橋頭村花橋街７９號
+（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53606180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上賀精技工業有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90212336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萬亞海事保險公證人有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90212336 萬亞海事保險公證人有限公司
+高雄市苓雅區城北里三多四路１１０號５樓之２
+（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54116226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和沐科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56649319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超炫科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47290141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛瓏機械有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79982174</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沛鑫科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28392082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德揚光電有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶瓷製絕緣配件 稅則:8547.10.00.00-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceramic Substrate 稅則:6909.19.90.00-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53125710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立誠光電股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口報單買方需加上地址
+有多個不同的監管編號
+留意客戶提供的監管編號及對應地址
+監管編號CS349--&gt;地址：新竹巿新竹科學工業園區東區力行五路３號
+出口長期委任書字號:109業二13100至114.08.13
+監管編號C7590--&gt;地址：新竹縣湖口鄉光復路12號
+出口長期委任書字號:109業二11846至114.07.19
+其它申報事項：加註 INVOICE NO 及 D/O NO
+賣方料號為 PART NO (WA開頭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口報單買方需加上地址
+統計方式在發票右上角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口報單買方需加上地址
+矽膠模具 稅則:3926.90.90.90-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口報單買方需加上地址
+留意品名不要缺漏，[北普XXXX]那行的右側欄位還有值，賣方號料在第二行，統計數量要打品名內的PCS數。
+貨件需務必於當日出口，如有郵件未回等異常，與出口報單申請書聯繫人進行確認後，進行當日安排出口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口報單買方需加上地址
+留意申請書其他備註的製單要求
+客戶檢附的excel檔，內有標示保稅貨物註記（bonded goods mark）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口報單買方需加上地址
+有多個不同的監管編號，留意客戶提供的監管編號及對應地址
+監管編號C6861--&gt;地址：新竹縣湖口鄉新竹工業區四維路一號
+監管編號C6862--&gt;地址：新竹縣竹東鎮北興路一段436號
+國外提供原料委託加工出口，國貨統計方式為06，
+洋貨復出口統計方式為8B，出口應依正確統計方式申報
+（矽格要求皆以06申報，會自行向監管海關解釋，這屬於個案）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口報單買方需加上地址
+統計數量看品名內的PCS數
+SHEET = KPCS * 1000 = PCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口報單買方需加上地址
+螢光片(Phosphor platelet) 稅則:7020.00.19.00-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口報單買方需加上地址
+INVOICE POSTAGE這個做在運費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口報單買方需加上地址
+留意客人出口原因是否跟申請書勾選的統計方式相符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口報單買方需加上地址
+注意嘜頭，客戶發票及PK沒有註明，郵件內會要求加，
+格式如下(以客戶郵件為準)：
+ADD
+C/N:1/1
+MADE IN TAIWAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>客戶有指定稅則:
+      <t>出口報單買方需加上地址
+客戶有指定稅則:
 PU管 3917.32.00.90-9
 氣缸 8412.31.10.00-7
 電磁閥 8481.80.90.00-6
@@ -2556,1567 +4118,6 @@
 SE40-TC中間耳軸支架 8412.90.00.90-8
 平行型氣動手指HFZ25 8412.31.10.00-7</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八吋晶粒稅則(DIE) 稅則:8542.39.00.11-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位有SET要跟客戶確認統計數量要打多少?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金額會有小數點進位的問題，客戶不改文件
-要求自行推算單價（金額÷數量）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶申請書勾選無商標，文件有BRAND，文件內容只是出廠商實際來貨無商標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感應器(半導體壓力感知器,用在血壓計上)
-稅則:9026.20.91.00-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請留意客戶要做哪個買方 BILL TO / SHIP TO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請留意客人出口抬頭是否正確</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請留意此客戶的金額及稅則
-客有指定稅則(有分印花及染色稅則不同)
-印花:6006.34.00.00-2
-染色:6006.32.00.00-4
-客戶要求文件上的COLOR:全部都不要秀
-客戶做INVOICE與申請書的小姐不同，請留意文件內容正確性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>買方 Wonderland Nurserygoods Company Limited，國家代碼 HK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廣懿科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶文件內容有SET=多少PCS的統計數量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元勛國際股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>長華電材股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛裕科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶要求報單買方做 SHIP TO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趙城企業有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>買方 CLASSIC VICTORY LIMITED，國家代碼 SC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>買方 金利運工業股份有限公司（統編 53383364，國家代碼 TW）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>育陞半導體股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若報單類別為G5/95，文件上需註明耗損率、預估完成數量、完成貨名
-（加工後品名、數量，皆需繕打在報單內，請留意！）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台灣類比科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佳凌科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請留意核銷的報單類別！
-若原進口報單類別為【B6保稅廠輸入貨物（原料）】，
-則出口報單類別應為【B8保稅廠進口貨物（原料）復出口】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>慶鳴有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接插件 connector 稅則：8536.90.20.00-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>買方 Vestas Wind systems A/S，國家代碼 DK
-Hedeager 42 8200 Åarhus N Denmark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>製作報單時留意買方需加上地址，出口放行後會由銷售助理協助申請一般產證。</t>
-  </si>
-  <si>
-    <t>泓格科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研展科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>慧友電子股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力德新能源科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普陽商貿有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口報單買方需加上地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>華泰電子股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和彥貿易有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼎元光電科技股份有限公司竹南分公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九強科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃科電子股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾格生科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>長華科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22561048 福人刀具股份有限公司
-臺中市大肚區王田里０２３鄰沙田路一段３２０巷３３―５號１樓
-（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福人刀具股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寬德股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竹懋科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禾昌興業股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留意品名不要缺漏，[北普XXXX]那行的右側欄位還有值，賣方號料在第二行，統計數量要打品名內的PCS數。
-貨件需務必於當日出口，如有郵件未回等異常，與出口報單申請書聯繫人進行確認後，進行當日安排出口。
-出口報單買方需加上地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螢光片(Phosphor platelet) 稅則:7020.00.19.00-1
-出口報單買方需加上地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留意申請書其他備註的製單要求
-客戶檢附的excel檔，內有標示保稅貨物註記（bonded goods mark）
-出口報單買方需加上地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克司康耐有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膜人包膜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47614704 膜人包膜
-臺中市北區新北里一中街１３２號
-（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INVOICE POSTAGE這個做在運費
-出口報單買方需加上地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元利科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矽格股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亞矽科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麗晶光電科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天鈺科技股份有限公司</t>
-  </si>
-  <si>
-    <t>聯陽半導體股份有限公司</t>
-  </si>
-  <si>
-    <t>禾伸堂企業股份有限公司</t>
-  </si>
-  <si>
-    <t>極創電子股份有限公司</t>
-  </si>
-  <si>
-    <t>昇佳電子股份有限公司</t>
-  </si>
-  <si>
-    <t>鈊創電子股份有限公司</t>
-  </si>
-  <si>
-    <t>力領科技股份有限公司</t>
-  </si>
-  <si>
-    <t>億光電子工業股份有限公司</t>
-  </si>
-  <si>
-    <t>瑞鼎科技股份有限公司</t>
-  </si>
-  <si>
-    <t>力晶積成電子製造股份有限公司</t>
-  </si>
-  <si>
-    <t>京元電子股份有限公司竹南分公司</t>
-  </si>
-  <si>
-    <t>光鋐科技股份有限公司</t>
-  </si>
-  <si>
-    <t>國巨股份有限公司</t>
-  </si>
-  <si>
-    <t>運籌客戶</t>
-  </si>
-  <si>
-    <t>轉檔客戶</t>
-  </si>
-  <si>
-    <t>運籌客戶
-2吋晶圓/矽晶圓(Wafer) 稅則:8542.39.00.12-0
-石英晶片(Crystal Blank) 稅則:8541.60.10.00-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轉檔客戶
-利保的越南件，品名中若包含越南文，打英文即可。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凱米克實業股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶瑞光電股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>繼德工業股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捷惠自動機械股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若有檢附核能安全委員會貨品出口同意書
-請留意對應項次的內容皆需與同意書相符(請用複製的)
-貨品分類號列、貨品名稱、牌名、型號、規格、數量、單位
-輸出許可號碼及項次欄位，請填列同意書簽審核准文號
-（共14碼，格式範例：AE113020042622）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28456304</t>
-  </si>
-  <si>
-    <t>13049603</t>
-  </si>
-  <si>
-    <t>23233430</t>
-  </si>
-  <si>
-    <t>83151502</t>
-  </si>
-  <si>
-    <t>23307811</t>
-  </si>
-  <si>
-    <t>28560405</t>
-  </si>
-  <si>
-    <t>16277740</t>
-  </si>
-  <si>
-    <t>16686610</t>
-  </si>
-  <si>
-    <t>16795912</t>
-  </si>
-  <si>
-    <t>70848492</t>
-  </si>
-  <si>
-    <t>53318771</t>
-  </si>
-  <si>
-    <t>22561048</t>
-  </si>
-  <si>
-    <t>47614704</t>
-  </si>
-  <si>
-    <t>23218022</t>
-  </si>
-  <si>
-    <t>96916895</t>
-  </si>
-  <si>
-    <t>84149499</t>
-  </si>
-  <si>
-    <t>84149717</t>
-  </si>
-  <si>
-    <t>20891326</t>
-  </si>
-  <si>
-    <t>25080085</t>
-  </si>
-  <si>
-    <t>25079572</t>
-  </si>
-  <si>
-    <t>25081367</t>
-  </si>
-  <si>
-    <t>25086406</t>
-  </si>
-  <si>
-    <t>34516147</t>
-  </si>
-  <si>
-    <t>80532726</t>
-  </si>
-  <si>
-    <t>28112667</t>
-  </si>
-  <si>
-    <t>70812945</t>
-  </si>
-  <si>
-    <t>28334226</t>
-  </si>
-  <si>
-    <t>22636630</t>
-  </si>
-  <si>
-    <t>84517297</t>
-  </si>
-  <si>
-    <t>28136915</t>
-  </si>
-  <si>
-    <t>89639615</t>
-  </si>
-  <si>
-    <t>69721550</t>
-  </si>
-  <si>
-    <t>80013822</t>
-  </si>
-  <si>
-    <t>89004161</t>
-  </si>
-  <si>
-    <t>42778426</t>
-  </si>
-  <si>
-    <t>16130465</t>
-  </si>
-  <si>
-    <t>24565301</t>
-  </si>
-  <si>
-    <t>83779238</t>
-  </si>
-  <si>
-    <t>28114813</t>
-  </si>
-  <si>
-    <t>70849957</t>
-  </si>
-  <si>
-    <t>43940926</t>
-  </si>
-  <si>
-    <t>12896354</t>
-  </si>
-  <si>
-    <t>22006020</t>
-  </si>
-  <si>
-    <t>50913261</t>
-  </si>
-  <si>
-    <t>27268748</t>
-  </si>
-  <si>
-    <t>22033899</t>
-  </si>
-  <si>
-    <t>85089315</t>
-  </si>
-  <si>
-    <t>59025512</t>
-  </si>
-  <si>
-    <t>16858612</t>
-  </si>
-  <si>
-    <t>23457064</t>
-  </si>
-  <si>
-    <t>統計數量看品名內的PCS數
-SHEET = KPCS * 1000 = PCE
-出口報單買方需加上地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留意客人出口原因是否跟申請書勾選的統計方式相符
-出口報單買方需加上地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翔名科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英特盛科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝和精密股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光電企業股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智勝科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔伯萬企業有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42671331 塔伯萬企業有限公司
-臺中市南區西川里三民西路２１８號
-（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金協昌科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口留意客戶信件！_x000D_
-有多個不同的監管編號
-留意客戶提供的監管編號及對應地址
-監管編號：D1330
-名稱：超豐電子股份有限公司
-地址：苗栗縣竹南鎮佳興里公義路136號
-監管編號：D1332 
-名稱：超豐電子股份有限公司-頭份廠
-地址：苗栗縣頭份市民生里10鄰中民路9號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立達特股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大內實業有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鉅立半導體股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有多個不同的監管編號
-留意客戶提供的監管編號及對應地址
-監管編號CS349--&gt;地址：新竹巿新竹科學工業園區東區力行五路３號
-出口長期委任書字號:109業二13100至114.08.13
-監管編號C7590--&gt;地址：新竹縣湖口鄉光復路12號
-出口長期委任書字號:109業二11846至114.07.19
-其它申報事項：加註 INVOICE NO 及 D/O NO
-賣方料號為 PART NO (WA開頭)
-出口報單買方需加上地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口"感應器"稅則
-Thermopile Sensor 稅則:9025.19.90.90-4
-NDIR CO2 Sensor 稅則8504.50.19.00-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>煬程企業社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鋒華科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奕力科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>釩達科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政美應用股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口報單買方需加上地址
-不可以用翔名AEO（那是客戶的郵件簽名）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台灣樂美逹技術服務有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>國際聯合科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>譁泰精機股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為升電裝工業股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼎茂光電股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>久昌科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微太克科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>創毅科技工業有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百徽股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宇能電科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羅美國際有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偉方精密工業股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鈞樂企業有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全科科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三和技研股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美奇林科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敦宏科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請留意客戶若有檢附輸出許可證，皆需按輸出許可證繕打，如報單內容與輸出許可證內容不符，會導致簽審回覆有誤。
-（有檢附輸出許可證的皆是）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇美實業股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PER MT 單位 TNE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC板 稅則:8534.00.00.90-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬碟 稅則:8471.70.10.10-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光智貿易有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祐全有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成石英 稅則:8486.90.00.90-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微特半導體股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOSFET電晶體 稅則:8541.29.90.00-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>銳馬動力科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷你型工業精密級自動化專用無刷電動起子
-稅則:8467.29.90.00-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開放電子有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光電傳感器 稅則:9031.49.99.00-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杏童科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二極體(含穩壓器) 稅則:8541.10.90.00-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碼瑙科技創新股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紅光雷射筆 稅則:9018.90.40.20-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磯鑫工業股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>振專股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天合國際興業有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矽膠模具 稅則:3926.90.90.90-8
-出口報單買方需加上地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42671331</t>
-  </si>
-  <si>
-    <t>59073491</t>
-  </si>
-  <si>
-    <t>53188329</t>
-  </si>
-  <si>
-    <t>53733849</t>
-  </si>
-  <si>
-    <t>53608315</t>
-  </si>
-  <si>
-    <t>90196080</t>
-  </si>
-  <si>
-    <t>53508104</t>
-  </si>
-  <si>
-    <t>27821487</t>
-  </si>
-  <si>
-    <t>53776678</t>
-  </si>
-  <si>
-    <t>70834639</t>
-  </si>
-  <si>
-    <t>68387705</t>
-  </si>
-  <si>
-    <t>86436593</t>
-  </si>
-  <si>
-    <t>54098493</t>
-  </si>
-  <si>
-    <t>53991607</t>
-  </si>
-  <si>
-    <t>52573942</t>
-  </si>
-  <si>
-    <t>80212998</t>
-  </si>
-  <si>
-    <t>84566661</t>
-  </si>
-  <si>
-    <t>97482186</t>
-  </si>
-  <si>
-    <t>80559251</t>
-  </si>
-  <si>
-    <t>54981206</t>
-  </si>
-  <si>
-    <t>82233457</t>
-  </si>
-  <si>
-    <t>12783703</t>
-  </si>
-  <si>
-    <t>42581937</t>
-  </si>
-  <si>
-    <t>28495545</t>
-  </si>
-  <si>
-    <t>89339624</t>
-  </si>
-  <si>
-    <t>16450332</t>
-  </si>
-  <si>
-    <t>97241217</t>
-  </si>
-  <si>
-    <t>23219346</t>
-  </si>
-  <si>
-    <t>54156182</t>
-  </si>
-  <si>
-    <t>53502805</t>
-  </si>
-  <si>
-    <t>12961328</t>
-  </si>
-  <si>
-    <t>96941260</t>
-  </si>
-  <si>
-    <t>84497335</t>
-  </si>
-  <si>
-    <t>24288502</t>
-  </si>
-  <si>
-    <t>53088308</t>
-  </si>
-  <si>
-    <t>60316123</t>
-  </si>
-  <si>
-    <t>90283303</t>
-  </si>
-  <si>
-    <t>86027892</t>
-  </si>
-  <si>
-    <t>27774061</t>
-  </si>
-  <si>
-    <t>80309249</t>
-  </si>
-  <si>
-    <t>52615393</t>
-  </si>
-  <si>
-    <t>27488166</t>
-  </si>
-  <si>
-    <t>50987328</t>
-  </si>
-  <si>
-    <t>50838067</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樂鑫材料科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23283254</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>東海產業有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54506580</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>騰勢股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>動物吃的保健食品 稅則:2106.90.99.90-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84900976</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藍摩半導體股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平坦化鑽石刀 稅則:7104.91.10.00-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50958793</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>銘揚科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54886081</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摩迅動機股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶要求出口人地址：
-台中市大甲區重義一路39號
-(與出進口廠商登記資料不同)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16463168</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漢華水處理工程股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69366904</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其美精密工業股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模子 稅則:8207.20.10.00-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97413843</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大銀微系統股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16166738</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶公司欠稅，故出口的貨件都會被海關扣下，請留意暫時不要讓此家客戶出口！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傑本尼氏有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有多個不同的監管編號，留意客戶提供的監管編號及對應地址
-監管編號C6861--&gt;地址：新竹縣湖口鄉新竹工業區四維路一號
-監管編號C6862--&gt;地址：新竹縣竹東鎮北興路一段436號
-國外提供原料委託加工出口，國貨統計方式為06，
-洋貨復出口統計方式為8B，出口應依正確統計方式申報
-（矽格要求皆以06申報，會自行向監管海關解釋，這屬於個案）
-出口報單買方需加上地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28331419</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睿怡科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>86575187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汎瑋材料科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宸諺數位科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90537307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90537307 宸諺數位科技有限公司
-臺北市中山區興亞里南京東路２段２０號９樓之１
-（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27299545</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樺聯科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCALE SB-20 稅則:8505.19.00.00-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低溫泵零件 稅則:8414.90.10.00-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53405037</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辰允科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>86735641</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力勤股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68094709</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博全國際股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68683608</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弘翔精密科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意嘜頭，客戶發票及PK沒有註明，郵件內會要求加，
-格式如下(以客戶郵件為準)：
-ADD
-C/N:1/1
-MADE IN TAIWAN
-出口報單買方需加上地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口稅則依申請書
-如果申請書沒有稅則，則依客戶文件內容為準
-(INVOICE的稅則是國外客戶要求秀上的)
-保稅部分沒有回覆也請出口，請注意保稅料號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25052644</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台灣彩光科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28548091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群創力科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>86131804</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碁佳企業股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84346772</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智茂科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80285106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台灣易格斯有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53382554</t>
-  </si>
-  <si>
-    <t>53382554 宜佳貿易有限公司
-臺中市南屯區三厝里惠中路３段８０號１０樓之３
-（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宜佳貿易有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27280378</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先勤科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16432742</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌巨科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13165200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竑碩科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90003909</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前電科創股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29047270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碩輝科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90057263</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橋立股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42623417</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台灣妝美堂股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53065229</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安尼克五金制造有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27564760</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力毅國際有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53502299</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨緯科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29147003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>優碩實業有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84920918</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83204487</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>澳生威企業股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宸威技術有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89287610</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宏晟國際光電有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G0550 REAR CAMERA MODULE,W3F242-AO
---&gt;稅則:8525.89.10.90-3
-GT500 13M Camera Module,OV13850
---&gt;稅則:8525.89.10.90-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46622234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焌煒實業有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59073491 台灣樂美逹技術服務有限公司
-嘉義縣朴子市大葛里祥和一路西段２１號３樓
-（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46622234 焌煒實業有限公司
-桃園市龜山區楓福里光峯路２１２號３樓
-（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19004316</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>華新科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80238977</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>銘鎮有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位MTS=米=MTR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97086144</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>業捷實業有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24771301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶鑽生醫股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53680499</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶訊國際有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留意數量及單價不要打反!
-端子 稅則:8536.90.20.00-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留意數量及單價不要打反!
-單位KEA=KPC，統計數量為PCS數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84627034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日進電線股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留意數量及單價不要打反!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53028365</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美商野外爬山單車有限公司台灣分公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53485593</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88120872</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>進鴻科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>東台精機股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23097408</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拓緯實業股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22308897</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亞亞科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28647347</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉利康股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45105681</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霈昇科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28802261 寰延有限公司
-新北市新店區德安里安康路２段２８６號（２樓）
-（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28802261</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寰延有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>統計方式在發票右上角
-出口報單買方需加上地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25191081</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25191081 湧益實業股份有限公司
-臺中市潭子區新田里５鄰豐興路２段３３８巷１３號
-（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湧益實業股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>統計數量看品名內的PCS數
-SHEET = KPCS * 1000 = PCE
-長華電材股份有限公司
-統一編號:23307811
-B9報單三角交易報關方式，請見客戶提供的WORD檔
-保稅廠商:長華科技股份有限公司 
-★海關監管編號不填，請填保稅相關信息★
-保稅廠統一編號：70849957
-保稅廠監管編號：BN132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16945166</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笙泉科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24965876</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喬方案有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41197533</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文胤設計工作室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41197533 文胤設計工作室
-宜蘭縣羅東鎮仁和里義和巷４號
-（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90063639</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>車偉佳有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53606180 上賀精技工業有限公司
-彰化縣花壇鄉橋頭村花橋街７９號
-（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53606180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上賀精技工業有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90212336</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萬亞海事保險公證人有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90212336 萬亞海事保險公證人有限公司
-高雄市苓雅區城北里三多四路１１０號５樓之２
-（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54116226</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和沐科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56649319</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超炫科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47290141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛瓏機械有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79982174</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沛鑫科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28392082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德揚光電有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶瓷製絕緣配件 稅則:8547.10.00.00-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ceramic Substrate 稅則:6909.19.90.00-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53125710</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立誠光電股份有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4242,7 +4243,21 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4586,7 +4601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4596,7 +4611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A373" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A402" sqref="A402"/>
     </sheetView>
   </sheetViews>
@@ -4623,13 +4638,13 @@
     </row>
     <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="78" x14ac:dyDescent="0.25">
@@ -4640,7 +4655,7 @@
         <v>567</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -4673,7 +4688,7 @@
         <v>190</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4706,7 +4721,7 @@
         <v>171</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>839</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="214.5" x14ac:dyDescent="0.25">
@@ -4717,7 +4732,7 @@
         <v>156</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="175.5" x14ac:dyDescent="0.25">
@@ -4739,7 +4754,7 @@
         <v>375</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4783,18 +4798,18 @@
         <v>460</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4849,7 +4864,7 @@
         <v>337</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4871,7 +4886,7 @@
         <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -4893,7 +4908,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="331.5" x14ac:dyDescent="0.25">
@@ -4948,7 +4963,7 @@
         <v>339</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4992,7 +5007,7 @@
         <v>347</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
@@ -5069,7 +5084,7 @@
         <v>356</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1055</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5333,7 +5348,7 @@
         <v>397</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6015,7 +6030,7 @@
         <v>551</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>885</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="136.5" x14ac:dyDescent="0.25">
@@ -6048,7 +6063,7 @@
         <v>557</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="97.5" x14ac:dyDescent="0.25">
@@ -6284,13 +6299,13 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -6345,7 +6360,7 @@
         <v>627</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -6422,7 +6437,7 @@
         <v>645</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -6477,7 +6492,7 @@
         <v>657</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -6642,7 +6657,7 @@
         <v>532</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>696</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -6664,7 +6679,7 @@
         <v>573</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="117" x14ac:dyDescent="0.25">
@@ -6708,7 +6723,7 @@
         <v>170</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -6917,7 +6932,7 @@
         <v>198</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -6983,7 +6998,7 @@
         <v>204</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -7054,13 +7069,13 @@
     </row>
     <row r="223" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -7189,18 +7204,18 @@
         <v>689</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>692</v>
@@ -7211,7 +7226,7 @@
         <v>690</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>691</v>
@@ -7219,79 +7234,79 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C238" s="8" t="s">
         <v>706</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C239" s="8" t="s">
         <v>710</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="C239" s="8" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C241" s="8" t="s">
         <v>715</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="C241" s="8" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C243" s="8" t="s">
         <v>718</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C244" s="8" t="s">
         <v>720</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="C244" s="8" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="78" x14ac:dyDescent="0.25">
@@ -7307,13 +7322,13 @@
     </row>
     <row r="246" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="78" x14ac:dyDescent="0.25">
@@ -7329,82 +7344,82 @@
     </row>
     <row r="248" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="117" x14ac:dyDescent="0.25">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>14</v>
       </c>
@@ -7412,7 +7427,7 @@
         <v>177</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>742</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
@@ -7423,172 +7438,172 @@
         <v>216</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>744</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="175.5" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>954</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
@@ -7599,216 +7614,216 @@
         <v>175</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C287" s="8" t="s">
         <v>761</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="C287" s="8" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C288" s="8" t="s">
         <v>762</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="C288" s="8" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -7819,40 +7834,40 @@
         <v>183</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="214.5" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>825</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -7863,7 +7878,7 @@
         <v>493</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>743</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -7874,7 +7889,7 @@
         <v>155</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>748</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -7885,7 +7900,7 @@
         <v>179</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>826</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -7896,7 +7911,7 @@
         <v>575</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -7907,7 +7922,7 @@
         <v>371</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -7918,1123 +7933,1122 @@
         <v>168</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="136.5" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>974</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C358"/>
   <sortState ref="B3:C379">
     <sortCondition ref="B3:B379"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="欠稅">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="欠稅">
       <formula>NOT(ISERROR(SEARCH("欠稅",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="非營業中">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="非營業中">
       <formula>NOT(ISERROR(SEARCH("非營業中",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Export_format/thingsToNote.xlsx
+++ b/Export_format/thingsToNote.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1091">
   <si>
     <t>客戶名稱</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4118,6 +4118,14 @@
 SE40-TC中間耳軸支架 8412.90.00.90-8
 平行型氣動手指HFZ25 8412.31.10.00-7</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70679995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣運科技有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4601,7 +4609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4609,9 +4617,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C401"/>
+  <dimension ref="A1:C402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A382" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A402" sqref="A402"/>
     </sheetView>
   </sheetViews>
@@ -9033,6 +9041,17 @@
         <v>1071</v>
       </c>
       <c r="C401" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C402" s="4" t="s">
         <v>728</v>
       </c>
     </row>

--- a/Export_format/thingsToNote.xlsx
+++ b/Export_format/thingsToNote.xlsx
@@ -11,7 +11,7 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$401</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$402</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1094">
   <si>
     <t>客戶名稱</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4126,6 +4126,20 @@
   </si>
   <si>
     <t>廣運科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95437539 尋光有限公司
+臺北市中山區中原里新生北路２段３１之１號１１樓之６
+（未向國際貿易署登記出進口廠商資料者，出口金額限制美金兩萬以下，且通關必驗，若金額超過美金兩萬需檢附輸出許可證才可出口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95437539</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尋光有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4251,21 +4265,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -4609,7 +4609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4617,10 +4617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C402"/>
+  <dimension ref="A1:C403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402"/>
+    <sheetView tabSelected="1" topLeftCell="A389" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -7493,221 +7493,221 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="175.5" x14ac:dyDescent="0.25">
-      <c r="A261" s="6" t="s">
+    <row r="261" spans="1:3" ht="78" x14ac:dyDescent="0.25">
+      <c r="A261" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="175.5" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B262" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="C261" s="4" t="s">
+      <c r="C262" s="4" t="s">
         <v>1082</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="97.5" x14ac:dyDescent="0.25">
-      <c r="A262" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>957</v>
+        <v>768</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>956</v>
+        <v>784</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="A265" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B265" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="C264" s="8" t="s">
+      <c r="C265" s="8" t="s">
         <v>856</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="C265" s="8" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B268" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="C267" s="8" t="s">
+      <c r="C268" s="8" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A268" s="7" t="s">
+    <row r="269" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A269" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B269" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="C268" s="8" t="s">
+      <c r="C269" s="8" t="s">
         <v>867</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="C269" s="8" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B272" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="C271" s="8" t="s">
+      <c r="C272" s="8" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="A272" s="7" t="s">
+    <row r="273" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="A273" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B273" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C272" s="8" t="s">
+      <c r="C273" s="8" t="s">
         <v>763</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="7" t="s">
-        <v>925</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="C273" s="8" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>989</v>
+        <v>953</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>988</v>
+        <v>952</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>1073</v>
+        <v>955</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>1076</v>
+        <v>989</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1075</v>
+        <v>988</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>748</v>
+        <v>1076</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>785</v>
+        <v>1075</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>761</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>761</v>
@@ -7715,10 +7715,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>761</v>
@@ -7726,10 +7726,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>761</v>
@@ -7737,10 +7737,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>761</v>
@@ -7748,10 +7748,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C284" s="8" t="s">
         <v>761</v>
@@ -7759,10 +7759,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C285" s="8" t="s">
         <v>761</v>
@@ -7770,10 +7770,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C286" s="8" t="s">
         <v>761</v>
@@ -7781,10 +7781,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C287" s="8" t="s">
         <v>761</v>
@@ -7792,21 +7792,21 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C289" s="8" t="s">
         <v>762</v>
@@ -7814,10 +7814,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C290" s="8" t="s">
         <v>762</v>
@@ -7825,109 +7825,109 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C291" s="8" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A293" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B293" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C292" s="8" t="s">
+      <c r="C293" s="8" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="214.5" x14ac:dyDescent="0.25">
-      <c r="A293" s="7" t="s">
+    <row r="294" spans="1:3" ht="214.5" x14ac:dyDescent="0.25">
+      <c r="A294" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B294" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="C293" s="8" t="s">
+      <c r="C294" s="8" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="78" x14ac:dyDescent="0.25">
-      <c r="A294" s="7" t="s">
+    <row r="295" spans="1:3" ht="78" x14ac:dyDescent="0.25">
+      <c r="A295" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B295" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="C294" s="4" t="s">
+      <c r="C295" s="4" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="7" t="s">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B296" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="C295" s="8" t="s">
+      <c r="C296" s="8" t="s">
         <v>858</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A296" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A298" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B298" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="C298" s="4" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A298" s="7" t="s">
+    <row r="299" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A299" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B299" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C298" s="8" t="s">
+      <c r="C299" s="8" t="s">
         <v>1086</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>92</v>
+        <v>576</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>371</v>
+        <v>575</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>728</v>
@@ -7935,21 +7935,21 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B302" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>798</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>728</v>
@@ -7957,10 +7957,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>728</v>
@@ -7968,10 +7968,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>728</v>
@@ -7979,10 +7979,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>728</v>
@@ -7990,10 +7990,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>728</v>
@@ -8001,10 +8001,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>728</v>
@@ -8012,10 +8012,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>728</v>
@@ -8023,10 +8023,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>728</v>
@@ -8034,10 +8034,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>728</v>
@@ -8045,10 +8045,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>728</v>
@@ -8056,10 +8056,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>728</v>
@@ -8067,10 +8067,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>728</v>
@@ -8078,10 +8078,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>728</v>
@@ -8089,10 +8089,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>728</v>
@@ -8100,10 +8100,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>728</v>
@@ -8111,10 +8111,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>728</v>
@@ -8122,10 +8122,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>728</v>
@@ -8133,10 +8133,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>728</v>
@@ -8144,10 +8144,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>728</v>
@@ -8155,10 +8155,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>728</v>
@@ -8166,65 +8166,65 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B323" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="C322" s="4" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A323" s="7" t="s">
+      <c r="C323" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A324" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B324" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="C323" s="4" t="s">
+      <c r="C324" s="4" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="7" t="s">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B325" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="C324" s="4" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A325" s="7" t="s">
+      <c r="C325" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A326" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B326" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="C325" s="4" t="s">
+      <c r="C326" s="4" t="s">
         <v>838</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="7" t="s">
-        <v>823</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>728</v>
@@ -8232,10 +8232,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>728</v>
@@ -8243,10 +8243,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>728</v>
@@ -8254,10 +8254,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>728</v>
@@ -8265,10 +8265,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>728</v>
@@ -8276,10 +8276,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>728</v>
@@ -8287,10 +8287,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>728</v>
@@ -8298,10 +8298,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>728</v>
@@ -8309,10 +8309,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>728</v>
@@ -8320,10 +8320,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>728</v>
@@ -8331,10 +8331,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>728</v>
@@ -8342,10 +8342,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>728</v>
@@ -8353,10 +8353,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>728</v>
@@ -8364,10 +8364,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>728</v>
@@ -8375,10 +8375,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>728</v>
@@ -8386,10 +8386,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>728</v>
@@ -8397,10 +8397,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>728</v>
@@ -8408,10 +8408,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>728</v>
@@ -8419,10 +8419,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>728</v>
@@ -8430,10 +8430,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>728</v>
@@ -8441,10 +8441,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>728</v>
@@ -8452,10 +8452,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>728</v>
@@ -8463,10 +8463,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>728</v>
@@ -8474,10 +8474,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>728</v>
@@ -8485,10 +8485,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>728</v>
@@ -8496,10 +8496,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>728</v>
@@ -8507,10 +8507,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>728</v>
@@ -8518,10 +8518,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>728</v>
@@ -8529,10 +8529,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
-        <v>921</v>
+        <v>876</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>728</v>
@@ -8540,10 +8540,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>728</v>
@@ -8551,10 +8551,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>728</v>
@@ -8562,10 +8562,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>728</v>
@@ -8573,10 +8573,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>728</v>
@@ -8584,10 +8584,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>728</v>
@@ -8595,10 +8595,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>728</v>
@@ -8606,10 +8606,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>728</v>
@@ -8617,10 +8617,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>728</v>
@@ -8628,10 +8628,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>728</v>
@@ -8639,10 +8639,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>728</v>
@@ -8650,10 +8650,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>728</v>
@@ -8661,10 +8661,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>728</v>
@@ -8672,10 +8672,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>728</v>
@@ -8683,10 +8683,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>728</v>
@@ -8694,10 +8694,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>728</v>
@@ -8705,10 +8705,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>728</v>
@@ -8716,10 +8716,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>728</v>
@@ -8727,10 +8727,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>728</v>
@@ -8738,10 +8738,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>728</v>
@@ -8749,10 +8749,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>728</v>
@@ -8760,10 +8760,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>728</v>
@@ -8771,10 +8771,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>728</v>
@@ -8782,10 +8782,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>728</v>
@@ -8793,10 +8793,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>728</v>
@@ -8804,10 +8804,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>728</v>
@@ -8815,10 +8815,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>728</v>
@@ -8826,10 +8826,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>728</v>
@@ -8837,10 +8837,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>728</v>
@@ -8848,10 +8848,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>728</v>
@@ -8859,10 +8859,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>728</v>
@@ -8870,10 +8870,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>728</v>
@@ -8881,10 +8881,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>728</v>
@@ -8892,10 +8892,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>728</v>
@@ -8903,10 +8903,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>728</v>
@@ -8914,10 +8914,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>728</v>
@@ -8925,10 +8925,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>728</v>
@@ -8936,10 +8936,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>728</v>
@@ -8947,10 +8947,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>728</v>
@@ -8958,10 +8958,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>728</v>
@@ -8969,10 +8969,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>728</v>
@@ -8980,10 +8980,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>728</v>
@@ -8991,10 +8991,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>728</v>
@@ -9002,10 +9002,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>728</v>
@@ -9013,10 +9013,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>728</v>
@@ -9024,10 +9024,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>728</v>
@@ -9035,10 +9035,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>728</v>
@@ -9046,12 +9046,23 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C402" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="B403" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="C402" s="4" t="s">
+      <c r="C403" s="4" t="s">
         <v>728</v>
       </c>
     </row>
@@ -9061,13 +9072,13 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="欠稅">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="欠稅">
       <formula>NOT(ISERROR(SEARCH("欠稅",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="非營業中">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="非營業中">
       <formula>NOT(ISERROR(SEARCH("非營業中",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Export_format/thingsToNote.xlsx
+++ b/Export_format/thingsToNote.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="1096">
   <si>
     <t>客戶名稱</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4140,6 +4140,14 @@
   </si>
   <si>
     <t>尋光有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52490083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沛伸企業有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4265,7 +4273,21 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4609,7 +4631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4617,10 +4639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C403"/>
+  <dimension ref="A1:C404"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A389" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403"/>
+      <selection activeCell="A405" sqref="A405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -9066,19 +9088,30 @@
         <v>728</v>
       </c>
     </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="B3:C379">
     <sortCondition ref="B3:B379"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="欠稅">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="欠稅">
       <formula>NOT(ISERROR(SEARCH("欠稅",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="非營業中">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="非營業中">
       <formula>NOT(ISERROR(SEARCH("非營業中",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Export_format/thingsToNote.xlsx
+++ b/Export_format/thingsToNote.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1098">
   <si>
     <t>客戶名稱</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4148,6 +4148,14 @@
   </si>
   <si>
     <t>沛伸企業有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94273947</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英屬維京群島商複裕實業有限公司台灣分公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4631,7 +4639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4639,7 +4647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C404"/>
+  <dimension ref="A1:C405"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A389" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A405" sqref="A405"/>
@@ -9096,6 +9104,17 @@
         <v>1094</v>
       </c>
       <c r="C404" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A405" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C405" s="4" t="s">
         <v>728</v>
       </c>
     </row>
